--- a/docs/memory_mapping.xlsx
+++ b/docs/memory_mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>系统程序区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>RAM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:最高位(第16位)为0表示ram2，为1表示ram1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -671,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -682,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -691,6 +695,11 @@
       </c>
       <c r="D18" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
